--- a/data/trans_bre/CAGE_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CAGE_R-Edad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.438899346344817</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>4.597129111172934</v>
+        <v>4.597129111172936</v>
       </c>
     </row>
     <row r="5">
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.111429411621122</v>
+        <v>-1.760986297026411</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.054324321451102</v>
+        <v>-4.035900915483269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.178902836523712</v>
+        <v>-2.056573853510749</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.926479896986981</v>
+        <v>-0.9405960702604763</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>-1</v>
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6885445766035828</v>
+        <v>0.9473041763844158</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.431836221018128</v>
+        <v>-0.4693160075245763</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6836020429588634</v>
+        <v>0.7241214036831878</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.75114432005107</v>
+        <v>13.72209429191798</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.0353041905521</v>
+        <v>2.62545997465672</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1334776143764464</v>
+        <v>-0.07998510555561168</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.458282563072907</v>
+        <v>2.934198988195845</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -756,23 +756,23 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.405772092020923</v>
+        <v>-1.348322327467972</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.505452105985497</v>
+        <v>-3.386888016524308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.198449965954524</v>
+        <v>-3.13742083806947</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.403029355905447</v>
+        <v>-6.728942079350277</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.8991305243098263</v>
+        <v>-0.8851068780638213</v>
       </c>
       <c r="J8" s="6" t="inlineStr"/>
     </row>
@@ -784,23 +784,23 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5084774299360569</v>
+        <v>0.5128089423888255</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.191210024985397</v>
+        <v>-1.168792781393977</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.1881865623329324</v>
+        <v>-0.1898593779113211</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.06289768841607561</v>
+        <v>-0.2832239472087701</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.085828342159425</v>
+        <v>2.265145983904159</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>-0.03223661418381687</v>
+        <v>0.05708853826596301</v>
       </c>
       <c r="J9" s="6" t="inlineStr"/>
     </row>
@@ -825,7 +825,7 @@
         <v>-0.9335943443958404</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.6037007897954049</v>
+        <v>-0.6037007897954058</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.8058693731168929</v>
@@ -837,7 +837,7 @@
         <v>-0.7777688765748347</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3284907528337931</v>
+        <v>-0.3284907528337935</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.541759588910229</v>
+        <v>-1.536942423789088</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.149322549286555</v>
+        <v>-3.087499086872608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.051018347466373</v>
+        <v>-1.987016132408747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.724919609482675</v>
+        <v>-2.543660671585558</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -865,7 +865,7 @@
         <v>-1</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9206181951313671</v>
       </c>
     </row>
     <row r="12">
@@ -876,24 +876,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.006171712354826604</v>
+        <v>-0.009996489299780963</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.047120805920345</v>
+        <v>-1.023499358645587</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.1458542386060591</v>
+        <v>-0.133909448028827</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.769400719856574</v>
+        <v>1.715264826025773</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>0.2391422219192705</v>
+        <v>0.5993232838835214</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>4.489330425960364</v>
+        <v>4.317750022943907</v>
       </c>
     </row>
     <row r="13">
@@ -917,7 +917,7 @@
         <v>-1.050579554369148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.6184550546047946</v>
+        <v>-0.6184550546047949</v>
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>-0.6720114975041954</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3130315896366668</v>
+        <v>-0.3130315896366669</v>
       </c>
     </row>
     <row r="14">
@@ -945,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.902467366524444</v>
+        <v>-3.907006680041969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.343682634170216</v>
+        <v>-2.650568551160136</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.690000770892079</v>
+        <v>-2.407114913708552</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -959,7 +959,7 @@
         <v>-1</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8682414549792076</v>
+        <v>-0.8534790514797338</v>
       </c>
     </row>
     <row r="15">
@@ -970,24 +970,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.326133434851703</v>
+        <v>1.139076051838765</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.9974072271443921</v>
+        <v>-1.109504459580965</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.06138760012682743</v>
+        <v>0.003917486289324607</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.406458198500976</v>
+        <v>1.303579362067976</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>0.3618715799213564</v>
+        <v>0.7199577728896787</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.746101537430668</v>
+        <v>1.757549471879756</v>
       </c>
     </row>
     <row r="16">
@@ -1011,7 +1011,7 @@
         <v>-1.210451295792633</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.575230108088999</v>
+        <v>-1.575230108088998</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.8627063294075366</v>
@@ -1023,7 +1023,7 @@
         <v>-0.6725359226699932</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3793389807189815</v>
+        <v>-0.3793389807189814</v>
       </c>
     </row>
     <row r="17">
@@ -1034,16 +1034,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.705399909690348</v>
+        <v>-3.517709001497757</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.476059951947215</v>
+        <v>-2.941702910722051</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.841393118399962</v>
+        <v>-3.006241217034234</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.57238792717944</v>
+        <v>-4.426432142366848</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="inlineStr"/>
@@ -1051,7 +1051,7 @@
         <v>-1</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.7786452367785043</v>
+        <v>-0.7952266168038358</v>
       </c>
     </row>
     <row r="18">
@@ -1062,24 +1062,24 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.3958468792510824</v>
+        <v>-0.4274348230556016</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2221050489080746</v>
+        <v>0.1647526400759165</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2318856909795022</v>
+        <v>0.1995105372892682</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.599178803801187</v>
+        <v>1.362460089522805</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>1.353789213532397</v>
+        <v>0.9967978897352209</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7832837258622968</v>
+        <v>0.6003387512418844</v>
       </c>
     </row>
     <row r="19">
@@ -1103,7 +1103,7 @@
         <v>-0.003077638951751865</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-1.775723074180699</v>
+        <v>-1.7757230741807</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
@@ -1113,7 +1113,7 @@
         <v>-0.01071263983121772</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.7541206314521148</v>
+        <v>-0.7541206314521149</v>
       </c>
     </row>
     <row r="20">
@@ -1125,13 +1125,13 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>-4.186333587040527</v>
+        <v>-4.48098792151534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.128348959604617</v>
+        <v>-0.8726718127643446</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.944846197388462</v>
+        <v>-4.097672278411953</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
@@ -1149,19 +1149,19 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>-0.328007808245646</v>
+        <v>-0.6134875581035287</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5722224285960914</v>
+        <v>0.5736467890055259</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.261980922871317</v>
+        <v>0.3425042954338265</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>2.205632387389663</v>
+        <v>3.86571836708126</v>
       </c>
     </row>
     <row r="22">
@@ -1185,7 +1185,7 @@
         <v>-0.3548045625365132</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.7991911678524563</v>
+        <v>-0.7991911678524564</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-1</v>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.800088465172907</v>
+        <v>-2.409097008599206</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.241662346183358</v>
+        <v>-4.119370938959821</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.118905174035418</v>
+        <v>-2.122842152527016</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.425420949195464</v>
+        <v>-3.794830167435082</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.652365871504062</v>
+        <v>4.28985091717259</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
@@ -1269,7 +1269,7 @@
         <v>-0.9606471142455177</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.6056602445509003</v>
+        <v>-0.605660244550901</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.6487142589218476</v>
@@ -1281,7 +1281,7 @@
         <v>-0.6684631136089009</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.2459156759604983</v>
+        <v>-0.2459156759604986</v>
       </c>
     </row>
     <row r="26">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.868029789446578</v>
+        <v>-0.9016707560207763</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.370137757033195</v>
+        <v>-2.333019555150392</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.502119756869986</v>
+        <v>-1.458576158575722</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.698139769948917</v>
+        <v>-1.729145636161205</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.869402852125411</v>
+        <v>-0.8628740400283609</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.9738354940756654</v>
+        <v>-0.9725918711781825</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.8123385635672495</v>
+        <v>-0.8259001500302555</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5998797872158906</v>
+        <v>-0.5882751792603695</v>
       </c>
     </row>
     <row r="27">
@@ -1324,28 +1324,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.1333907173734821</v>
+        <v>-0.1656807253704455</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-1.263160440627872</v>
+        <v>-1.302685819132369</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-0.5243644901025751</v>
+        <v>-0.4708806536926992</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8269796062051014</v>
+        <v>0.683379947444727</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.2093267806426388</v>
+        <v>-0.2726579880916451</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.8185837221456483</v>
+        <v>-0.8199745003292306</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.4091430594195512</v>
+        <v>-0.4096884679831121</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4366484001278848</v>
+        <v>0.3614524893760758</v>
       </c>
     </row>
     <row r="28">
